--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/RandomForest/261023_DF_opt_hyperparam_RandomForest_1-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/RandomForest/261023_DF_opt_hyperparam_RandomForest_1-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.294310478637904</v>
+        <v>4.841915723578452</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -514,165 +514,13 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>104</v>
+        <v>183</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BR Vũng Tàu</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9.765695296965697</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>113</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Bình Phước</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11.09849236278689</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>127</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Bình Thuận</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3.053913417295802</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" t="n">
-        <v>116</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Bình Định</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3.654666193269283</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>130</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/RandomForest/261023_DF_opt_hyperparam_RandomForest_1-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/RandomForest/261023_DF_opt_hyperparam_RandomForest_1-nstep.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.841915723578452</v>
+        <v>6.097256629441549</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -514,13 +514,51 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I2" t="n">
+        <v>6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>BR Vũng Tàu</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13.60339303873743</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>19</v>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>88</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/optimize_hyperparam/opt_results/opt_res_ml_26102023/RandomForest/261023_DF_opt_hyperparam_RandomForest_1-nstep.xlsx
+++ b/optimize_hyperparam/opt_results/opt_res_ml_26102023/RandomForest/261023_DF_opt_hyperparam_RandomForest_1-nstep.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bình Phước</t>
+          <t>An Giang</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -497,10 +497,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.42362293419612</v>
+        <v>7.926071503633016</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
@@ -514,19 +514,19 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>An Giang</t>
+          <t>BR Vũng Tàu</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15.50690463455298</v>
+        <v>14.11366943411666</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -552,51 +552,2027 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>Bình Phước</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17.91961356757204</v>
+      </c>
+      <c r="D4" t="n">
+        <v>50</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>148</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Bình Thuận</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7.107275003588853</v>
+      </c>
+      <c r="D5" t="n">
+        <v>50</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>132</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Bình Định</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6.681946132567704</v>
+      </c>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>102</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bạc Liêu</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6.10867723314481</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>188</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Bắc Kạn</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.09132659996848584</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>54</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Bắc Giang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6830680316527309</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>82</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Cao Bằng</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3343552825316236</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>87</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Cà Mau</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>111.6799373856776</v>
+      </c>
+      <c r="D11" t="n">
+        <v>50</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>87</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Cần Thơ</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>6.230947856461359</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>193</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Gia Lai</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5.273471237432923</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>190</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hà Giang</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.777604399735796</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>119</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hà Nội</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3.391873874642964</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>67</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hà Tĩnh</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.652855095803116</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>63</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hòa Bình</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.04163290596460944</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>67</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hưng Yên</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3779505546620291</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>110</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hải Dương</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09183281597502879</v>
+      </c>
+      <c r="D19" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>56</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Hải Phòng</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6757033830989415</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>81</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3</v>
+      </c>
+      <c r="J20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Khánh Hòa</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>16.50880103131617</v>
+      </c>
+      <c r="D21" t="n">
+        <v>50</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>193</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Kiên Giang</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7.668071750237266</v>
+      </c>
+      <c r="D22" t="n">
+        <v>50</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>111</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Kon Tum</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12.18944641137876</v>
+      </c>
+      <c r="D23" t="n">
+        <v>50</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
+        <v>88</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lai Châu</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.06959247740008699</v>
+      </c>
+      <c r="D24" t="n">
+        <v>50</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>179</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Long An</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>8.110203267767043</v>
+      </c>
+      <c r="D25" t="n">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1</v>
+      </c>
+      <c r="H25" t="n">
+        <v>127</v>
+      </c>
+      <c r="I25" t="n">
+        <v>8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lào Cai</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.09339779224209474</v>
+      </c>
+      <c r="D26" t="n">
+        <v>50</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>124</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lâm Đồng</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>31.38310302664607</v>
+      </c>
+      <c r="D27" t="n">
+        <v>50</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>102</v>
+      </c>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lạng Sơn</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04934419442513927</v>
+      </c>
+      <c r="D28" t="n">
+        <v>50</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="n">
+        <v>51</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Nam Định</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4871841421791184</v>
+      </c>
+      <c r="D29" t="n">
+        <v>50</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>94</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2</v>
+      </c>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Nghệ An</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.533068470079997</v>
+      </c>
+      <c r="D30" t="n">
+        <v>50</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>152</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ninh Bình</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.07106069311738475</v>
+      </c>
+      <c r="D31" t="n">
+        <v>50</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" t="n">
+        <v>124</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ninh Thuận</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>6.046038590115397</v>
+      </c>
+      <c r="D32" t="n">
+        <v>50</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>164</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Phú Thọ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2307091552787899</v>
+      </c>
+      <c r="D33" t="n">
+        <v>50</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
+        <v>139</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Phú Yên</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>13.16125157818266</v>
+      </c>
+      <c r="D34" t="n">
+        <v>50</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>192</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Quảng Bình</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>6.53890639422807</v>
+      </c>
+      <c r="D35" t="n">
+        <v>50</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>112</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Quảng Nam</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4.059398733095718</v>
+      </c>
+      <c r="D36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" t="n">
+        <v>127</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Quảng Ngãi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>14.89376243456481</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" t="n">
+        <v>79</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Quảng Ninh</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RandomForest</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9.034413751783172</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-1,-2,-3</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>166</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>5.153669075819069</v>
+      </c>
+      <c r="D38" t="n">
+        <v>50</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="n">
+        <v>200</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Quảng Trị</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.608055897038297</v>
+      </c>
+      <c r="D39" t="n">
+        <v>50</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="n">
+        <v>52</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sóc Trăng</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>16.0779080280707</v>
+      </c>
+      <c r="D40" t="n">
+        <v>50</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>77</v>
+      </c>
+      <c r="I40" t="n">
+        <v>15</v>
+      </c>
+      <c r="J40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sơn La</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.005152604688708132</v>
+      </c>
+      <c r="D41" t="n">
+        <v>50</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>170</v>
+      </c>
+      <c r="I41" t="n">
         <v>5</v>
       </c>
-      <c r="J4" t="n">
-        <v>31</v>
+      <c r="J41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>TT Huế</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2.761602973178716</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="n">
+        <v>68</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Thanh Hóa</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.4003907425170274</v>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>56</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Thái Bình</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2565553242174379</v>
+      </c>
+      <c r="D44" t="n">
+        <v>50</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>186</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Thái Nguyên</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1703720535515082</v>
+      </c>
+      <c r="D45" t="n">
+        <v>50</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" t="n">
+        <v>183</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Tiền Giang</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10.62739041500378</v>
+      </c>
+      <c r="D46" t="n">
+        <v>50</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="n">
+        <v>199</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2</v>
+      </c>
+      <c r="J46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Trà Vinh</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>12.83271599099811</v>
+      </c>
+      <c r="D47" t="n">
+        <v>50</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>70</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Tuyên Quang</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.1359338463848262</v>
+      </c>
+      <c r="D48" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>102</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Tây Ninh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9.045414886026862</v>
+      </c>
+      <c r="D49" t="n">
+        <v>50</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>186</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Vĩnh Phúc</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.3554060941194458</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>107</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yên Bái</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1126144746285512</v>
+      </c>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="n">
+        <v>164</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Điện Biên</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.005905681632865213</v>
+      </c>
+      <c r="D52" t="n">
+        <v>50</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="n">
+        <v>117</v>
+      </c>
+      <c r="I52" t="n">
+        <v>5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Đà Nẵng</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10.423819107483</v>
+      </c>
+      <c r="D53" t="n">
+        <v>50</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>78</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Đắk Nông</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>3.910266265535336</v>
+      </c>
+      <c r="D54" t="n">
+        <v>50</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>99</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Đắk Lắk</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>8.726818733127637</v>
+      </c>
+      <c r="D55" t="n">
+        <v>50</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="n">
+        <v>105</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Đồng Tháp</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>RandomForest</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>9.977794363456008</v>
+      </c>
+      <c r="D56" t="n">
+        <v>50</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>-1,-2,-3</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>104</v>
+      </c>
+      <c r="I56" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
